--- a/RF_Results.xlsx
+++ b/RF_Results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +514,87 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>credit_card_clean</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>81.71 (0.0037)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>81.80 (0.0039)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78.07 (0.0039)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.07 (0.0041)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>student dropout</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>75.80 (0.0073)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>75.74 (0.0092)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.18 (0.0128)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>54.26 (0.0118)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>student performance</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>90.85 (0.0103)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>90.84 (0.0081)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>50.89 (0.0081)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50.80 (0.0084)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
